--- a/2025/10/2025-10-23/23_fixtures.xlsx
+++ b/2025/10/2025-10-23/23_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CR Flamengo ✓ - Racing Club: 1:0</t>
+          <t>FC Krasnodar ✓ - FC Sochi: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.59</v>
+        <v>3.56</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CR Flamengo</t>
+          <t>FC Krasnodar</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -527,30 +527,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FC Krasnodar  - FC Sochi: 16:30</t>
+          <t>Al-Najma SC - Al-Ahli SFC ✓: 0:1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.53</v>
+        <v>2.12</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Krasnodar</t>
+          <t>Al-Ahli SFC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -561,27 +566,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk  - Legia Warszawa: 17:45</t>
+          <t>FC Tallinn - FC Nomme United ✓: 1:4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.43</v>
+        <v>3.09</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk</t>
+          <t>FC Nomme United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -595,15 +605,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atlético Nacional ✓ - Once Caldas: 2:0</t>
+          <t>CR Flamengo ✓ - Racing Club: 1:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atlético Nacional</t>
+          <t>CR Flamengo</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -611,7 +621,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -620,7 +630,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -634,30 +644,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Club Tijuana - Deportivo Toluca : 0:0</t>
+          <t>FC Rànger's  - FC Pas de la Casa: 13:30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.31</v>
+        <v>2.14</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo Toluca</t>
+          <t>FC Rànger's</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>43</v>
+      </c>
+      <c r="I6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -668,11 +678,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv - FC Midtjylland : 20:00</t>
+          <t>Maccabi Tel Aviv - FC Midtjylland ✓: 0:3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -684,14 +694,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -702,27 +717,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AS Roma  - FC Viktoria Plzen: 20:00</t>
+          <t>Feyenoord Rotterdam ✓ - Panathinaikos FC: 3:1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Feyenoord Rotterdam</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -736,30 +756,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shamrock Rovers - NK Celje : 20:00</t>
+          <t>Atlético Nacional ✓ - Once Caldas: 2:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.33</v>
+        <v>1.75</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Atlético Nacional</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -770,30 +795,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Al-Najma SC - Al-Ahli SFC : 19:00</t>
+          <t>Club Tijuana - Deportivo Toluca : 0:0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.2</v>
+        <v>3.21</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Ahli SFC</t>
+          <t>Deportivo Toluca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -804,15 +829,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Feyenoord Rotterdam  - Panathinaikos FC: 20:00</t>
+          <t>Xorazm Urganch - Pakhtakor Tashkent ✓: 0:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feyenoord Rotterdam</t>
+          <t>Pakhtakor Tashkent</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -820,14 +845,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -838,51 +868,134 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AEK Athens  - Aberdeen FC: 17:45</t>
+          <t>Shamrock Rovers - NK Celje ✓: 0:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.13</v>
+        <v>3.28</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NK Celje</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AEK Athens ✓ - Aberdeen FC: 6:0</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>AEK Athens</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>3.5</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>62</v>
-      </c>
-      <c r="I12" t="b">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="K13">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Thu Oct 23</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Celtic FC ✓ - SK Sturm Graz: 2:1</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Celtic FC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="K15">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L13">
-        <f>(K13/K15)*100</f>
+      <c r="L15">
+        <f>(K15/K17)*100</f>
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="K14">
+    <row r="16">
+      <c r="K16">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="K15">
-        <f>K13+K14</f>
+    <row r="17">
+      <c r="K17">
+        <f>K15+K16</f>
         <v/>
       </c>
     </row>
